--- a/Kmarket1/Kmarket 테이블 명세서 v1.0.xlsx
+++ b/Kmarket1/Kmarket 테이블 명세서 v1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Desktop\Workspace\Kmarket1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Desktop\Workspace\JSP\Kmarket1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="12315" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="주문 상품 아이템" sheetId="10" r:id="rId10"/>
     <sheet name="상품리뷰" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mg0OSVdVK+ABti0rkEYWZpV+3ZAtw=="/>
@@ -2411,7 +2411,46 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2420,13 +2459,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2434,60 +2473,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2525,23 +2510,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2550,33 +2577,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2815,400 +2815,400 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="106" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="36" t="s">
         <v>381</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="105" t="s">
         <v>382</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="96" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="105" t="s">
         <v>384</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="104">
         <v>44901</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="68"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="81"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="61" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="64"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="61" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="64"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="61" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="64"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="61" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="61" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="64"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="61" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="64"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="78"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="61" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="64"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="61" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="64"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="61" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B18" s="65"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="78"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B19" s="65"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B21" s="65"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="64"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B22" s="65"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B23" s="65"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="64"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="78"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B24" s="65"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B25" s="65"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="64"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B26" s="98"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="97"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="92"/>
     </row>
     <row r="27" spans="2:9" ht="6" customHeight="1"/>
     <row r="28" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B30" s="90"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="89"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B31" s="90"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="89"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B32" s="90"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="89"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B33" s="90"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="89"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B34" s="90"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="89"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="84"/>
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B35" s="91"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="93"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="88"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1">
       <c r="B36" s="6" t="s">
@@ -4182,6 +4182,61 @@
     <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:I14"/>
@@ -4198,61 +4253,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4280,13 +4280,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -4450,15 +4450,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1">
       <c r="B14" s="30"/>
@@ -5503,13 +5503,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="113" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -5730,15 +5730,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
       <c r="B21" s="30"/>
@@ -6754,8 +6754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H999"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6773,11 +6773,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1">
@@ -7305,18 +7305,21 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="68"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="81"/>
     </row>
     <row r="35" spans="2:8" s="38" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B35" s="30"/>
+      <c r="B35" s="30" t="e">
+        <f>- 관리자 페이지로 넘어갈 때, 로그인해서 리다이렉트 할 거면 type에 관리자 코드도 추가하기</f>
+        <v>#NAME?</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="31"/>
@@ -10257,12 +10260,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="50"/>
       <c r="G1" s="60"/>
       <c r="H1" s="50"/>
@@ -10461,15 +10464,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1">
       <c r="B20" s="30"/>
@@ -11500,12 +11503,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -11720,15 +11723,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1">
       <c r="B22" s="30"/>
@@ -12762,12 +12765,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
@@ -12845,15 +12848,15 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="8" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
       <c r="B9" s="30" t="s">
@@ -14036,15 +14039,15 @@
     </row>
     <row r="8" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="9" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1">
       <c r="B10" s="30" t="s">
@@ -15519,7 +15522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
@@ -15538,12 +15541,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="113" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -16152,103 +16155,103 @@
     </row>
     <row r="39" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="40" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="107"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="116"/>
     </row>
     <row r="41" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B41" s="108" t="s">
+      <c r="B41" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="111"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="68"/>
     </row>
     <row r="42" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="69" t="s">
         <v>345</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="113"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="70"/>
     </row>
     <row r="43" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="113"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="70"/>
     </row>
     <row r="44" spans="2:8" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="71" t="s">
         <v>378</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="113"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="70"/>
     </row>
     <row r="45" spans="2:8" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="71" t="s">
         <v>379</v>
       </c>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="113"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="70"/>
     </row>
     <row r="46" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B46" s="114" t="s">
+      <c r="B46" s="71" t="s">
         <v>380</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="113"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="70"/>
     </row>
     <row r="47" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="71" t="s">
         <v>387</v>
       </c>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="113"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="70"/>
     </row>
     <row r="48" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="116"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="73"/>
     </row>
     <row r="49" ht="16.5" customHeight="1"/>
     <row r="50" ht="16.5" customHeight="1"/>
@@ -17235,12 +17238,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
@@ -17467,15 +17470,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1">
       <c r="B19" s="30"/>
@@ -18850,15 +18853,15 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1">
       <c r="B24" s="30" t="s">
